--- a/data/instancias/Instancia - Hard (Biologias).xlsx
+++ b/data/instancias/Instancia - Hard (Biologias).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="598">
   <si>
     <t>ID</t>
   </si>
@@ -1675,7 +1675,10 @@
     <t>PROF.158</t>
   </si>
   <si>
-    <t>Técnico em Administração</t>
+    <t>Curso</t>
+  </si>
+  <si>
+    <t>Nome</t>
   </si>
   <si>
     <t xml:space="preserve">Periodo </t>
@@ -1684,19 +1687,82 @@
     <t>Ciências Biológicas (licenciatura)</t>
   </si>
   <si>
+    <t>Ciências Biológicas - Primeiro Periodo (Noturno)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Terceiro Periodo (Noturno)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Quinto Periodo (Noturno)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Setimo Periodo (Noturno)</t>
+  </si>
+  <si>
     <t>Ciências Biológicas (bacharelado)</t>
   </si>
   <si>
+    <t>Ciências Biológicas - Primeiro Periodo (Integral)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Terceiro Periodo (Integral)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Quinto Periodo (Integral)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Setimo Periodo (Integral)</t>
+  </si>
+  <si>
+    <t>Ciências Biológicas - Oitavo Periodo (Integral)</t>
+  </si>
+  <si>
     <t>Técnico em Biotecnologia</t>
   </si>
   <si>
+    <t>Técnico em Biotecnologia - Primeiro Semestre</t>
+  </si>
+  <si>
+    <t>Técnico em Biotecnologia - Terceiro Semestre</t>
+  </si>
+  <si>
     <t>Engenharia Química</t>
   </si>
   <si>
+    <t>Engenharia Química - Primeiro Periodo</t>
+  </si>
+  <si>
+    <t>Engenharia Química - Terceiro Periodo</t>
+  </si>
+  <si>
+    <t>Engenharia Química - Quinto Periodo</t>
+  </si>
+  <si>
+    <t>Engenharia Química - Segundo Periodo Especial</t>
+  </si>
+  <si>
     <t>Técnico em Química</t>
   </si>
   <si>
+    <t>Técnico em Química - Primeiro Semestre</t>
+  </si>
+  <si>
+    <t>Técnico em Química - Terceiro Semestre</t>
+  </si>
+  <si>
     <t>Química</t>
+  </si>
+  <si>
+    <t>Química - Primeiro Periodo (Noturno)</t>
+  </si>
+  <si>
+    <t>Química - Terceiro Periodo (Noturno)</t>
+  </si>
+  <si>
+    <t>Química - Quinto Periodo (Noturno)</t>
+  </si>
+  <si>
+    <t>Química - Setimo Periodo (Noturno)</t>
   </si>
   <si>
     <t>Cursos</t>
@@ -1888,7 +1954,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2005,7 +2071,7 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="9" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
@@ -2022,11 +2088,17 @@
     <xf borderId="4" fillId="9" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="4" fillId="9" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="9" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="9" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -34288,7 +34360,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="49.13"/>
+    <col customWidth="1" min="1" max="1" width="19.38"/>
+    <col customWidth="1" min="2" max="2" width="26.63"/>
+    <col customWidth="1" min="3" max="3" width="38.25"/>
+    <col customWidth="1" min="5" max="5" width="49.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -34298,31 +34373,33 @@
       <c r="B1" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="40" t="s">
+        <v>555</v>
+      </c>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="I1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="K1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="42"/>
       <c r="L1" s="42"/>
       <c r="M1" s="42"/>
       <c r="N1" s="42"/>
@@ -34337,46 +34414,49 @@
       <c r="W1" s="42"/>
       <c r="X1" s="42"/>
       <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2">
       <c r="A2" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>557</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="36" t="str">
+      <c r="E2" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A2)))"),"183888,182557,183586,182559,182558,182560,182561")</f>
         <v>183888,182557,183586,182559,182558,182560,182561</v>
       </c>
-      <c r="E2" s="37" t="str">
-        <f t="shared" ref="E2:E22" si="1">ifs(C2 = "Manhã", "7-16", C2 = "Tarde", "1-6,13-16", C2 = "Noite", "1-12", C2 = "Integral", "13-16")</f>
-        <v>1-12</v>
-      </c>
       <c r="F2" s="37" t="str">
-        <f t="shared" ref="F2:F22" si="2">ifs(C2 = "Manhã", "7-16", C2 = "Tarde", "1-6,13-16", C2 = "Noite", "1-12", C2 = "Integral", "13-16")</f>
+        <f t="shared" ref="F2:F22" si="1">ifs(D2 = "Manhã", "7-16", D2 = "Tarde", "1-6,13-16", D2 = "Noite", "1-12", D2 = "Integral", "13-16")</f>
         <v>1-12</v>
       </c>
       <c r="G2" s="37" t="str">
-        <f t="shared" ref="G2:G22" si="3">ifs(C2 = "Manhã", "7-16", C2 = "Tarde", "1-6,13-16", C2 = "Noite", "1-12", C2 = "Integral", "13-16")</f>
+        <f t="shared" ref="G2:G22" si="2">ifs(D2 = "Manhã", "7-16", D2 = "Tarde", "1-6,13-16", D2 = "Noite", "1-12", D2 = "Integral", "13-16")</f>
         <v>1-12</v>
       </c>
       <c r="H2" s="37" t="str">
-        <f t="shared" ref="H2:H22" si="4">ifs(C2 = "Manhã", "7-16", C2 = "Tarde", "1-6,13-16", C2 = "Noite", "1-12", C2 = "Integral", "13-16")</f>
+        <f t="shared" ref="H2:H22" si="3">ifs(D2 = "Manhã", "7-16", D2 = "Tarde", "1-6,13-16", D2 = "Noite", "1-12", D2 = "Integral", "13-16")</f>
         <v>1-12</v>
       </c>
       <c r="I2" s="37" t="str">
-        <f t="shared" ref="I2:I22" si="5">ifs(C2 = "Manhã", "7-16", C2 = "Tarde", "1-6,13-16", C2 = "Noite", "1-12", C2 = "Integral", "13-16")</f>
+        <f t="shared" ref="I2:I22" si="4">ifs(D2 = "Manhã", "7-16", D2 = "Tarde", "1-6,13-16", D2 = "Noite", "1-12", D2 = "Integral", "13-16")</f>
         <v>1-12</v>
       </c>
       <c r="J2" s="37" t="str">
-        <f t="shared" ref="J2:J22" si="6">ifs(C2 = "Manhã", "1-16", C2 = "Tarde", "1-16", C2 = "Noite", "12-16", C2 = "Integral", "1-16")</f>
+        <f t="shared" ref="J2:J22" si="5">ifs(D2 = "Manhã", "7-16", D2 = "Tarde", "1-6,13-16", D2 = "Noite", "1-12", D2 = "Integral", "13-16")</f>
+        <v>1-12</v>
+      </c>
+      <c r="K2" s="37" t="str">
+        <f t="shared" ref="K2:K22" si="6">ifs(D2 = "Manhã", "1-16", D2 = "Tarde", "1-16", D2 = "Noite", "12-16", D2 = "Integral", "1-16")</f>
         <v>12-16</v>
       </c>
-      <c r="K2" s="42"/>
       <c r="L2" s="42"/>
       <c r="M2" s="42"/>
       <c r="N2" s="42"/>
@@ -34391,46 +34471,49 @@
       <c r="W2" s="42"/>
       <c r="X2" s="42"/>
       <c r="Y2" s="42"/>
+      <c r="Z2" s="42"/>
     </row>
     <row r="3">
       <c r="A3" s="43" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C3" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>558</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="36" t="str">
+      <c r="E3" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A3)))"),"182562,182563,182564,182565,182566")</f>
         <v>182562,182563,182564,182565,182566</v>
       </c>
-      <c r="E3" s="37" t="str">
+      <c r="F3" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F3" s="37" t="str">
+      <c r="G3" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G3" s="37" t="str">
+      <c r="H3" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H3" s="37" t="str">
+      <c r="I3" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I3" s="37" t="str">
+      <c r="J3" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J3" s="37" t="str">
+      <c r="K3" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
-      <c r="K3" s="42"/>
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
       <c r="N3" s="42"/>
@@ -34445,46 +34528,49 @@
       <c r="W3" s="42"/>
       <c r="X3" s="42"/>
       <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
     </row>
     <row r="4">
       <c r="A4" s="43" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>559</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="36" t="str">
+      <c r="E4" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A4)))"),"182567,182568,182569,182570,182572,182571")</f>
         <v>182567,182568,182569,182570,182572,182571</v>
       </c>
-      <c r="E4" s="37" t="str">
+      <c r="F4" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F4" s="37" t="str">
+      <c r="G4" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G4" s="37" t="str">
+      <c r="H4" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H4" s="37" t="str">
+      <c r="I4" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I4" s="37" t="str">
+      <c r="J4" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J4" s="37" t="str">
+      <c r="K4" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
-      <c r="K4" s="42"/>
       <c r="L4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
@@ -34499,46 +34585,49 @@
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
     </row>
     <row r="5">
       <c r="A5" s="43" t="s">
         <v>72</v>
       </c>
       <c r="B5" s="44" t="s">
-        <v>555</v>
-      </c>
-      <c r="C5" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>560</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="36" t="str">
+      <c r="E5" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A5)))"),"182573,182574,182575,182576,182577,182578")</f>
         <v>182573,182574,182575,182576,182577,182578</v>
       </c>
-      <c r="E5" s="37" t="str">
+      <c r="F5" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F5" s="37" t="str">
+      <c r="G5" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G5" s="37" t="str">
+      <c r="H5" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H5" s="37" t="str">
+      <c r="I5" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I5" s="37" t="str">
+      <c r="J5" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J5" s="37" t="str">
+      <c r="K5" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
-      <c r="K5" s="42"/>
       <c r="L5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
@@ -34553,46 +34642,49 @@
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
     </row>
     <row r="6">
       <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C6" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>562</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="36" t="str">
+      <c r="E6" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A6)))"),"182579,182329,182331,182330,182332,182333,182334,182335")</f>
         <v>182579,182329,182331,182330,182332,182333,182334,182335</v>
       </c>
-      <c r="E6" s="37" t="str">
+      <c r="F6" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="F6" s="37" t="str">
+      <c r="G6" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="G6" s="37" t="str">
+      <c r="H6" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="H6" s="37" t="str">
+      <c r="I6" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="I6" s="37" t="str">
+      <c r="J6" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="J6" s="37" t="str">
+      <c r="K6" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
-      <c r="K6" s="42"/>
       <c r="L6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
@@ -34607,46 +34699,49 @@
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
     </row>
     <row r="7">
       <c r="A7" s="43" t="s">
         <v>103</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>563</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="36" t="str">
+      <c r="E7" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A7)))"),"182336,182337,182338,182340,182341")</f>
         <v>182336,182337,182338,182340,182341</v>
       </c>
-      <c r="E7" s="37" t="str">
+      <c r="F7" s="37" t="str">
         <f t="shared" si="1"/>
         <v>7-16</v>
       </c>
-      <c r="F7" s="37" t="str">
+      <c r="G7" s="37" t="str">
         <f t="shared" si="2"/>
         <v>7-16</v>
       </c>
-      <c r="G7" s="37" t="str">
+      <c r="H7" s="37" t="str">
         <f t="shared" si="3"/>
         <v>7-16</v>
       </c>
-      <c r="H7" s="37" t="str">
+      <c r="I7" s="37" t="str">
         <f t="shared" si="4"/>
         <v>7-16</v>
       </c>
-      <c r="I7" s="37" t="str">
+      <c r="J7" s="37" t="str">
         <f t="shared" si="5"/>
         <v>7-16</v>
       </c>
-      <c r="J7" s="37" t="str">
+      <c r="K7" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
-      <c r="K7" s="42"/>
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
@@ -34661,46 +34756,49 @@
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
     </row>
     <row r="8">
       <c r="A8" s="43" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>564</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="36" t="str">
+      <c r="E8" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A8)))"),"182342,182343,182344,182345,182346,182347,182348,182349")</f>
         <v>182342,182343,182344,182345,182346,182347,182348,182349</v>
       </c>
-      <c r="E8" s="37" t="str">
+      <c r="F8" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="F8" s="37" t="str">
+      <c r="G8" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="G8" s="37" t="str">
+      <c r="H8" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="H8" s="37" t="str">
+      <c r="I8" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="I8" s="37" t="str">
+      <c r="J8" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="J8" s="37" t="str">
+      <c r="K8" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
-      <c r="K8" s="42"/>
       <c r="L8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
@@ -34715,46 +34813,49 @@
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
     </row>
     <row r="9">
       <c r="A9" s="43" t="s">
         <v>131</v>
       </c>
       <c r="B9" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>565</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="36" t="str">
+      <c r="E9" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A9)))"),"182350,182351,182352,182353,182354")</f>
         <v>182350,182351,182352,182353,182354</v>
       </c>
-      <c r="E9" s="37" t="str">
+      <c r="F9" s="37" t="str">
         <f t="shared" si="1"/>
         <v>7-16</v>
       </c>
-      <c r="F9" s="37" t="str">
+      <c r="G9" s="37" t="str">
         <f t="shared" si="2"/>
         <v>7-16</v>
       </c>
-      <c r="G9" s="37" t="str">
+      <c r="H9" s="37" t="str">
         <f t="shared" si="3"/>
         <v>7-16</v>
       </c>
-      <c r="H9" s="37" t="str">
+      <c r="I9" s="37" t="str">
         <f t="shared" si="4"/>
         <v>7-16</v>
       </c>
-      <c r="I9" s="37" t="str">
+      <c r="J9" s="37" t="str">
         <f t="shared" si="5"/>
         <v>7-16</v>
       </c>
-      <c r="J9" s="37" t="str">
+      <c r="K9" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
-      <c r="K9" s="42"/>
       <c r="L9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
@@ -34769,46 +34870,49 @@
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
       <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10">
       <c r="A10" s="43" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="44" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="36" t="str">
+      <c r="E10" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A10)))"),"182355,183865,183863")</f>
         <v>182355,183865,183863</v>
       </c>
-      <c r="E10" s="37" t="str">
+      <c r="F10" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="F10" s="37" t="str">
+      <c r="G10" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="G10" s="37" t="str">
+      <c r="H10" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="H10" s="37" t="str">
+      <c r="I10" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="I10" s="37" t="str">
+      <c r="J10" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="J10" s="37" t="str">
+      <c r="K10" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
-      <c r="K10" s="42"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
@@ -34823,46 +34927,49 @@
       <c r="W10" s="42"/>
       <c r="X10" s="42"/>
       <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11">
       <c r="A11" s="43" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="44" t="s">
-        <v>557</v>
-      </c>
-      <c r="C11" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>568</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="36" t="str">
+      <c r="E11" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A11)))"),"183864,183486,183490,183487,183491,183489")</f>
         <v>183864,183486,183490,183487,183491,183489</v>
       </c>
-      <c r="E11" s="37" t="str">
+      <c r="F11" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F11" s="37" t="str">
+      <c r="G11" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G11" s="37" t="str">
+      <c r="H11" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H11" s="37" t="str">
+      <c r="I11" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I11" s="37" t="str">
+      <c r="J11" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J11" s="37" t="str">
+      <c r="K11" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
-      <c r="K11" s="42"/>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
@@ -34877,46 +34984,49 @@
       <c r="W11" s="42"/>
       <c r="X11" s="42"/>
       <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
     </row>
     <row r="12">
       <c r="A12" s="43" t="s">
         <v>167</v>
       </c>
       <c r="B12" s="44" t="s">
-        <v>557</v>
-      </c>
-      <c r="C12" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>569</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="36" t="str">
+      <c r="E12" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A12)))"),"183488,183495,183496,183493,183492")</f>
         <v>183488,183495,183496,183493,183492</v>
       </c>
-      <c r="E12" s="37" t="str">
+      <c r="F12" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F12" s="37" t="str">
+      <c r="G12" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G12" s="37" t="str">
+      <c r="H12" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H12" s="37" t="str">
+      <c r="I12" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I12" s="37" t="str">
+      <c r="J12" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J12" s="37" t="str">
+      <c r="K12" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
-      <c r="K12" s="42"/>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
@@ -34931,42 +35041,46 @@
       <c r="W12" s="42"/>
       <c r="X12" s="42"/>
       <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
     </row>
     <row r="13">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>558</v>
-      </c>
-      <c r="C13" s="28" t="s">
+      <c r="B13" s="47" t="s">
+        <v>570</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>571</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="47" t="str">
+      <c r="E13" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A13)))"),"183744,182483,182484,182485,182486,182487,182488")</f>
         <v>183744,182483,182484,182485,182486,182487,182488</v>
       </c>
-      <c r="E13" s="48" t="str">
+      <c r="F13" s="50" t="str">
         <f t="shared" si="1"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="F13" s="48" t="str">
+      <c r="G13" s="50" t="str">
         <f t="shared" si="2"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="G13" s="48" t="str">
+      <c r="H13" s="50" t="str">
         <f t="shared" si="3"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="H13" s="48" t="str">
+      <c r="I13" s="50" t="str">
         <f t="shared" si="4"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="I13" s="48" t="str">
+      <c r="J13" s="50" t="str">
         <f t="shared" si="5"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="J13" s="48" t="str">
+      <c r="K13" s="50" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
@@ -34976,36 +35090,39 @@
         <v>276</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>572</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="36" t="str">
+      <c r="E14" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A14)))"),"182489,182492,182493,182494")</f>
         <v>182489,182492,182493,182494</v>
       </c>
-      <c r="E14" s="37" t="str">
+      <c r="F14" s="37" t="str">
         <f t="shared" si="1"/>
         <v>7-16</v>
       </c>
-      <c r="F14" s="37" t="str">
+      <c r="G14" s="37" t="str">
         <f t="shared" si="2"/>
         <v>7-16</v>
       </c>
-      <c r="G14" s="37" t="str">
+      <c r="H14" s="37" t="str">
         <f t="shared" si="3"/>
         <v>7-16</v>
       </c>
-      <c r="H14" s="37" t="str">
+      <c r="I14" s="37" t="str">
         <f t="shared" si="4"/>
         <v>7-16</v>
       </c>
-      <c r="I14" s="37" t="str">
+      <c r="J14" s="37" t="str">
         <f t="shared" si="5"/>
         <v>7-16</v>
       </c>
-      <c r="J14" s="37" t="str">
+      <c r="K14" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
@@ -35015,36 +35132,39 @@
         <v>284</v>
       </c>
       <c r="B15" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="36" t="str">
+      <c r="E15" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A15)))"),"182495,182497,182499,182498,182500,182501")</f>
         <v>182495,182497,182499,182498,182500,182501</v>
       </c>
-      <c r="E15" s="37" t="str">
+      <c r="F15" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="F15" s="37" t="str">
+      <c r="G15" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="G15" s="37" t="str">
+      <c r="H15" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="H15" s="37" t="str">
+      <c r="I15" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="I15" s="37" t="str">
+      <c r="J15" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-6,13-16</v>
       </c>
-      <c r="J15" s="37" t="str">
+      <c r="K15" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
@@ -35054,36 +35174,39 @@
         <v>300</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>558</v>
-      </c>
-      <c r="C16" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>574</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="36" t="str">
+      <c r="E16" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A16)))"),"182502")</f>
         <v>182502</v>
       </c>
-      <c r="E16" s="37" t="str">
+      <c r="F16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>7-16</v>
       </c>
-      <c r="F16" s="37" t="str">
+      <c r="G16" s="37" t="str">
         <f t="shared" si="2"/>
         <v>7-16</v>
       </c>
-      <c r="G16" s="37" t="str">
+      <c r="H16" s="37" t="str">
         <f t="shared" si="3"/>
         <v>7-16</v>
       </c>
-      <c r="H16" s="37" t="str">
+      <c r="I16" s="37" t="str">
         <f t="shared" si="4"/>
         <v>7-16</v>
       </c>
-      <c r="I16" s="37" t="str">
+      <c r="J16" s="37" t="str">
         <f t="shared" si="5"/>
         <v>7-16</v>
       </c>
-      <c r="J16" s="37" t="str">
+      <c r="K16" s="37" t="str">
         <f t="shared" si="6"/>
         <v>1-16</v>
       </c>
@@ -35093,36 +35216,39 @@
         <v>181</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>559</v>
-      </c>
-      <c r="C17" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>576</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="36" t="str">
+      <c r="E17" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A17)))"),"183675,183522,183519,183524,183521,183523,183525")</f>
         <v>183675,183522,183519,183524,183521,183523,183525</v>
       </c>
-      <c r="E17" s="37" t="str">
+      <c r="F17" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F17" s="37" t="str">
+      <c r="G17" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G17" s="37" t="str">
+      <c r="H17" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H17" s="37" t="str">
+      <c r="I17" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I17" s="37" t="str">
+      <c r="J17" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J17" s="37" t="str">
+      <c r="K17" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
@@ -35132,36 +35258,39 @@
         <v>200</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>559</v>
-      </c>
-      <c r="C18" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="36" t="str">
+      <c r="E18" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A18)))"),"183520,183528,183531,183532,183529,183526,183530")</f>
         <v>183520,183528,183531,183532,183529,183526,183530</v>
       </c>
-      <c r="E18" s="37" t="str">
+      <c r="F18" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F18" s="37" t="str">
+      <c r="G18" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G18" s="37" t="str">
+      <c r="H18" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H18" s="37" t="str">
+      <c r="I18" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I18" s="37" t="str">
+      <c r="J18" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J18" s="37" t="str">
+      <c r="K18" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
@@ -35171,36 +35300,39 @@
         <v>217</v>
       </c>
       <c r="B19" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="C19" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>579</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="36" t="str">
+      <c r="E19" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A19)))"),"183527,182580,182581,182582,182583,182584")</f>
         <v>183527,182580,182581,182582,182583,182584</v>
       </c>
-      <c r="E19" s="37" t="str">
+      <c r="F19" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F19" s="37" t="str">
+      <c r="G19" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G19" s="37" t="str">
+      <c r="H19" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H19" s="37" t="str">
+      <c r="I19" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I19" s="37" t="str">
+      <c r="J19" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J19" s="37" t="str">
+      <c r="K19" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
@@ -35210,36 +35342,39 @@
         <v>228</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="C20" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>580</v>
+      </c>
+      <c r="D20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="36" t="str">
+      <c r="E20" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A20)))"),"182585,182586,182587,182588,182589")</f>
         <v>182585,182586,182587,182588,182589</v>
       </c>
-      <c r="E20" s="37" t="str">
+      <c r="F20" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F20" s="37" t="str">
+      <c r="G20" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G20" s="37" t="str">
+      <c r="H20" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H20" s="37" t="str">
+      <c r="I20" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I20" s="37" t="str">
+      <c r="J20" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J20" s="37" t="str">
+      <c r="K20" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
@@ -35249,36 +35384,39 @@
         <v>240</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>581</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="36" t="str">
+      <c r="E21" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A21)))"),"182591,182592,182593,182595")</f>
         <v>182591,182592,182593,182595</v>
       </c>
-      <c r="E21" s="37" t="str">
+      <c r="F21" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F21" s="37" t="str">
+      <c r="G21" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G21" s="37" t="str">
+      <c r="H21" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H21" s="37" t="str">
+      <c r="I21" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I21" s="37" t="str">
+      <c r="J21" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J21" s="37" t="str">
+      <c r="K21" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
@@ -35288,36 +35426,39 @@
         <v>249</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="36" t="str">
+      <c r="E22" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Disciplinas!A:A, regexmatch(Disciplinas!E:E, A22)))"),"182597,182598,182601,182602")</f>
         <v>182597,182598,182601,182602</v>
       </c>
-      <c r="E22" s="37" t="str">
+      <c r="F22" s="37" t="str">
         <f t="shared" si="1"/>
         <v>1-12</v>
       </c>
-      <c r="F22" s="37" t="str">
+      <c r="G22" s="37" t="str">
         <f t="shared" si="2"/>
         <v>1-12</v>
       </c>
-      <c r="G22" s="37" t="str">
+      <c r="H22" s="37" t="str">
         <f t="shared" si="3"/>
         <v>1-12</v>
       </c>
-      <c r="H22" s="37" t="str">
+      <c r="I22" s="37" t="str">
         <f t="shared" si="4"/>
         <v>1-12</v>
       </c>
-      <c r="I22" s="37" t="str">
+      <c r="J22" s="37" t="str">
         <f t="shared" si="5"/>
         <v>1-12</v>
       </c>
-      <c r="J22" s="37" t="str">
+      <c r="K22" s="37" t="str">
         <f t="shared" si="6"/>
         <v>12-16</v>
       </c>
@@ -35342,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>561</v>
+        <v>583</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>562</v>
+        <v>584</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="E1" s="33" t="s">
         <v>9</v>
@@ -35387,35 +35528,35 @@
     </row>
     <row r="2">
       <c r="A2" s="35" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="D2" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Turmas!A:A,Turmas!B:B=B2))"),"20221.02BIO23I.1MV,20221.02BIO23I.3MV,20221.02BIO23I.5MV,20221.02BIO23I.7MV,20221.02BIO23I.8MV")</f>
         <v>20221.02BIO23I.1MV,20221.02BIO23I.3MV,20221.02BIO23I.5MV,20221.02BIO23I.7MV,20221.02BIO23I.8MV</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="I2" s="37" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="K2" s="34"/>
       <c r="L2" s="34"/>
@@ -35436,32 +35577,32 @@
     </row>
     <row r="3">
       <c r="A3" s="35" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="D3" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Turmas!A:A,Turmas!B:B=B3))"),"20221.02BIO22N.1N,20221.02BIO22N.3N,20221.02BIO22N.5N,20221.02BIO22N.7N")</f>
         <v>20221.02BIO22N.1N,20221.02BIO22N.3N,20221.02BIO22N.5N,20221.02BIO22N.7N</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="H3" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>303</v>
@@ -35485,32 +35626,32 @@
     </row>
     <row r="4">
       <c r="A4" s="35" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="D4" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Turmas!A:A,Turmas!B:B=B4))"),"20221.02BTC11N.1N,20221.02BTC11N.3N")</f>
         <v>20221.02BTC11N.1N,20221.02BTC11N.3N</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="G4" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="I4" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="J4" s="37" t="s">
         <v>303</v>
@@ -35533,66 +35674,66 @@
       <c r="Z4" s="34"/>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="s">
-        <v>573</v>
+      <c r="A5" s="51" t="s">
+        <v>595</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="D5" s="47" t="str">
+        <v>587</v>
+      </c>
+      <c r="D5" s="49" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Turmas!A:A,Turmas!B:B=B5))"),"20221.02ENQ20I.1MV,20221.02ENQ20I.3MV,20221.02ENQ20I.5MV,20221.02ENQ20I.TE.2MV")</f>
         <v>20221.02ENQ20I.1MV,20221.02ENQ20I.3MV,20221.02ENQ20I.5MV,20221.02ENQ20I.TE.2MV</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="G5" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="H5" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="I5" s="48" t="s">
-        <v>566</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>567</v>
+      <c r="E5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="I5" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="35" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="D6" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Turmas!A:A,Turmas!B:B=B6))"),"20221.02QUI22N.1N,20221.02QUI22N.3N,20221.02QUI22N.5N,20221.02QUI22N.7N")</f>
         <v>20221.02QUI22N.1N,20221.02QUI22N.3N,20221.02QUI22N.5N,20221.02QUI22N.7N</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="J6" s="37" t="s">
         <v>303</v>
@@ -35600,32 +35741,32 @@
     </row>
     <row r="7">
       <c r="A7" s="35" t="s">
+        <v>597</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>575</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>559</v>
-      </c>
       <c r="C7" s="16" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="D7" s="36" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("JOIN("","",FILTER(Turmas!A:A,Turmas!B:B=B7))"),"20221.02QUI10N.1N,20221.02QUI10N.3N")</f>
         <v>20221.02QUI10N.1N,20221.02QUI10N.3N</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="J7" s="37" t="s">
         <v>303</v>
